--- a/VerveStacks_ESP/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ESP/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ESP\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD297F4-ED6D-4918-ABBD-09D3FA32EC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8519E4-0739-42AE-82C5-F3D9DFD71230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462F6683-43FC-4EDD-8068-43C93F9E89E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701606E2-408B-4252-B752-D734D8F3F8CA}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0630C727-EE31-4076-A89A-8FEC0E3D0FD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E277FB0-DBFE-4850-B567-824D129A9892}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4523DFD-997A-47FC-BD96-126CF679EA84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F65A1CD-8AC0-4228-9E81-022D92E864BA}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
